--- a/BESS Data.xlsx
+++ b/BESS Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo.giannuzzo\Documents\GitHub\BESS-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2244A170-42E5-4C15-93CA-52348855AC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE7F75-65C5-44CD-B1C1-CF6DD7675BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1392" yWindow="1128" windowWidth="21624" windowHeight="11112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BESS Properties" sheetId="1" r:id="rId1"/>
@@ -17010,7 +17010,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="27">
-        <f t="shared" ref="A359:A422" si="18">(B360-C360/0.93)/MAX(B360:B957)</f>
+        <f t="shared" ref="A360:A422" si="18">(B360-C360/0.93)/MAX(B360:B957)</f>
         <v>0.99437137074183912</v>
       </c>
       <c r="B360" s="27">
@@ -32387,6 +32387,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73f032b1-d858-4e52-a112-ff8a449379e0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB9475D466104B4F8254900DD2928249" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="51bfdcbcfa4b53868757ab92efd2e4cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73f032b1-d858-4e52-a112-ff8a449379e0" xmlns:ns3="2cf41f78-c934-4264-8805-5389acee063d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af5ace7edf031339c2ec4586fdd3025f" ns2:_="" ns3:_="">
     <xsd:import namespace="73f032b1-d858-4e52-a112-ff8a449379e0"/>
@@ -32597,16 +32607,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73f032b1-d858-4e52-a112-ff8a449379e0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -32617,6 +32617,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A602403A-600C-49AF-946F-2F0888D2A6AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="73f032b1-d858-4e52-a112-ff8a449379e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2cf41f78-c934-4264-8805-5389acee063d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE7B807A-2ECF-47D1-92D8-AD26DF1B906C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32635,23 +32652,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A602403A-600C-49AF-946F-2F0888D2A6AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="73f032b1-d858-4e52-a112-ff8a449379e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2cf41f78-c934-4264-8805-5389acee063d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1200BC12-131E-47A8-BFF6-178118ED08DF}">
   <ds:schemaRefs>
